--- a/CURRENT WORK/SALT WORK - CODES/N = 4/Li2SO4 - Done/Test_excelsheet for Li2SO4 n=4.xlsx
+++ b/CURRENT WORK/SALT WORK - CODES/N = 4/Li2SO4 - Done/Test_excelsheet for Li2SO4 n=4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\FYP\Current Work\SALT WORK\N = 4\Li2SO4 - Done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\Final-Year-Project\CURRENT WORK\SALT WORK - CODES\N = 4\Li2SO4 - Done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A87063CF-4DC9-4611-AF1F-4C5AF20B3955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E9103A-5EF2-4003-9A4E-02F16453076F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" activeTab="1" xr2:uid="{86974002-CAD5-4FCC-AF77-EBAA345E04BF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" firstSheet="1" activeTab="1" xr2:uid="{86974002-CAD5-4FCC-AF77-EBAA345E04BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp - Osmotic Coefficient" sheetId="1" r:id="rId1"/>
@@ -653,27 +653,54 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t>Parity Plot for Li2SO4 for</a:t>
+              <a:rPr lang="en-IN" sz="1320"/>
+              <a:t>Fig 18.</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-IN" baseline="0"/>
-              <a:t> n=4</a:t>
+              <a:rPr lang="en-IN" sz="1320" baseline="0"/>
+              <a:t> </a:t>
             </a:r>
-            <a:endParaRPr lang="en-IN"/>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1320"/>
+              <a:t>Parity Plot for Li</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="900"/>
+              <a:t>2</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1320"/>
+              <a:t>SO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="900"/>
+              <a:t>4</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1320"/>
+              <a:t> for n=4</a:t>
+            </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.2410872685185185"/>
+          <c:y val="0.895212037037037"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -687,11 +714,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -702,7 +729,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.14273463438031642"/>
+          <c:y val="5.6148829294267635E-2"/>
+          <c:w val="0.81562399292518228"/>
+          <c:h val="0.66035255336335463"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -1076,11 +1113,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -1105,11 +1142,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -1136,11 +1173,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1168,18 +1205,18 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-IN"/>
-                  <a:t>Experimental Osmotic COefficient</a:t>
+                  <a:t>Experimental Osmotic Coefficient</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1197,11 +1234,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -1228,11 +1265,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -1285,7 +1322,12 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -4085,34 +4127,46 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t>Temperature vs </a:t>
+              <a:rPr lang="en-IN" sz="1320"/>
+              <a:t>Fig 17. Temperature vs Ø for Li</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-IN">
-                <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-              </a:rPr>
-              <a:t>Ø</a:t>
+              <a:rPr lang="en-IN" sz="900"/>
+              <a:t>2</a:t>
             </a:r>
             <a:r>
-              <a:rPr lang="en-IN"/>
-              <a:t> for Li2SO4 n=4</a:t>
+              <a:rPr lang="en-IN" sz="1320"/>
+              <a:t>SO</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="900"/>
+              <a:t>4</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-IN" sz="1320"/>
+              <a:t> n=4</a:t>
             </a:r>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18347475982977859"/>
+          <c:y val="0.8771929824561403"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4126,11 +4180,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -4820,24 +4874,19 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-IN" sz="1100">
-                    <a:latin typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                    <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                    <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
-                  </a:rPr>
+                  <a:rPr lang="en-IN"/>
                   <a:t>Ø</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-IN"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -4854,11 +4903,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -4886,11 +4935,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -4916,11 +4965,11 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx2"/>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
+                    <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                     <a:ea typeface="+mn-ea"/>
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
@@ -4945,11 +4994,11 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx2"/>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
+                  <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                   <a:ea typeface="+mn-ea"/>
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
@@ -4976,11 +5025,11 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx2"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
@@ -5008,9 +5057,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15095461198191348"/>
-          <c:y val="0.16802345960826559"/>
-          <c:w val="0.25935765038715958"/>
+          <c:x val="0.18035277777777781"/>
+          <c:y val="0.11804652777777777"/>
+          <c:w val="0.37695023148148149"/>
           <c:h val="0.11174490810798486"/>
         </c:manualLayout>
       </c:layout>
@@ -5029,11 +5078,11 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1050" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx2"/>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
+              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
@@ -5073,7 +5122,12 @@
     <a:lstStyle/>
     <a:p>
       <a:pPr>
-        <a:defRPr/>
+        <a:defRPr sz="1200">
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
+        </a:defRPr>
       </a:pPr>
       <a:endParaRPr lang="en-US"/>
     </a:p>
@@ -9088,13 +9142,13 @@
       <xdr:col>48</xdr:col>
       <xdr:colOff>210120</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>23165</xdr:rowOff>
+      <xdr:rowOff>23164</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>57</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>55</xdr:col>
+      <xdr:colOff>262920</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>144544</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9316,12 +9370,12 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.10891</cdr:x>
-      <cdr:y>0.13236</cdr:y>
+      <cdr:x>0.14363</cdr:x>
+      <cdr:y>0.05828</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.96099</cdr:x>
-      <cdr:y>0.85149</cdr:y>
+      <cdr:x>0.95746</cdr:x>
+      <cdr:y>0.7196</cdr:y>
     </cdr:to>
     <cdr:cxnSp macro="">
       <cdr:nvCxnSpPr>
@@ -9336,8 +9390,8 @@
       </cdr:nvCxnSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="619559" y="517855"/>
-          <a:ext cx="4847221" cy="2813489"/>
+          <a:off x="620460" y="251755"/>
+          <a:ext cx="3515777" cy="2856901"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
           <a:avLst/>
@@ -9530,9 +9584,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>68580</xdr:rowOff>
+      <xdr:colOff>68040</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>109950</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10932,7 +10986,7 @@
   <dimension ref="A1:AU84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="AP7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BI23" sqref="BI23"/>
+      <selection activeCell="BE24" sqref="BE24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21304,8 +21358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA53125-8324-42F8-BF4C-83E8BB87300B}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -22236,20 +22290,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22272,6 +22326,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71225005-2353-48CA-B97F-AA326ECE473F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715EA469-2506-458C-8899-792543708004}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -22286,12 +22348,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71225005-2353-48CA-B97F-AA326ECE473F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/CURRENT WORK/SALT WORK - CODES/N = 4/Li2SO4 - Done/Test_excelsheet for Li2SO4 n=4.xlsx
+++ b/CURRENT WORK/SALT WORK - CODES/N = 4/Li2SO4 - Done/Test_excelsheet for Li2SO4 n=4.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\Final-Year-Project\CURRENT WORK\SALT WORK - CODES\N = 4\Li2SO4 - Done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E9103A-5EF2-4003-9A4E-02F16453076F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80370323-39F8-4F68-9ADA-068015921FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" firstSheet="1" activeTab="1" xr2:uid="{86974002-CAD5-4FCC-AF77-EBAA345E04BF}"/>
   </bookViews>
@@ -746,6 +746,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Data Points</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -1086,6 +1089,127 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Parity Line</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="15875" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'For finding 12 unknows'!$AW$9:$AW$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'For finding 12 unknows'!$AX$9:$AX$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.79999999999999993</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.89999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.99999999999999989</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.0999999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5FFB-4274-B070-F2AB6D3AFE70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1102,7 +1226,6 @@
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1.2"/>
-          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1156,8 +1279,8 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1188,7 +1311,7 @@
         <c:crossAx val="1501985871"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="0.2"/>
+        <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="1501985871"/>
@@ -1248,8 +1371,8 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -1280,6 +1403,7 @@
         <c:crossAx val="1240791008"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:minorUnit val="0.1"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1337,7 +1461,6 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
-  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -4163,8 +4286,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.18347475982977859"/>
-          <c:y val="0.8771929824561403"/>
+          <c:x val="0.18641458333333333"/>
+          <c:y val="0.90659120370370372"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -4223,23 +4346,8 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="216"/>
-                <c:pt idx="0">
-                  <c:v>8.5834900000000006E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.14215900000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14127400000000001</c:v>
-                </c:pt>
                 <c:pt idx="3">
                   <c:v>0.14638200000000001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.13661799999999999</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.6268300000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>7.7306899999999998E-2</c:v>
@@ -4403,23 +4511,8 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="216"/>
-                <c:pt idx="0">
-                  <c:v>260</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>261</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>262</c:v>
-                </c:pt>
                 <c:pt idx="3">
                   <c:v>263</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>264</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>266</c:v>
@@ -4885,7 +4978,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-IN"/>
-                  <a:t>Ø</a:t>
+                  <a:t>Volume Fraction</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -4917,8 +5010,8 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -4950,11 +5043,13 @@
         <c:crossAx val="472873184"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:minorUnit val="2.5000000000000005E-2"/>
       </c:valAx>
       <c:valAx>
         <c:axId val="472873184"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="200"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -5008,8 +5103,8 @@
           </c:txPr>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="out"/>
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
@@ -5040,6 +5135,7 @@
         <c:crossAx val="596408272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:minorUnit val="25"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -9139,16 +9235,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>48</xdr:col>
-      <xdr:colOff>210120</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>23164</xdr:rowOff>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>453960</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>167944</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>55</xdr:col>
-      <xdr:colOff>262920</xdr:colOff>
+      <xdr:col>59</xdr:col>
+      <xdr:colOff>506760</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>144544</xdr:rowOff>
+      <xdr:rowOff>106444</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -9175,249 +9271,10 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>51</xdr:col>
-      <xdr:colOff>335280</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="TextBox 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D16A807-0EB1-4658-B784-B5D3A9A58B3C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="37536120" y="2339340"/>
-          <a:ext cx="1234440" cy="449580"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="tx1"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1100"/>
-            <a:t>         Data Points</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-IN" sz="1100" baseline="0"/>
-            <a:t>         Parity Line</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>464820</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Flowchart: Connector 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91EC19DE-FA94-4234-908F-234D68878487}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="37680900" y="2438400"/>
-          <a:ext cx="106680" cy="114300"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartConnector">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr lang="en-IN" sz="1100"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>49</xdr:col>
-      <xdr:colOff>426720</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>50</xdr:col>
-      <xdr:colOff>30480</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="9" name="Straight Connector 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74CE5646-EDF4-401D-BD32-9EC2E8C039ED}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="37642800" y="2667000"/>
-          <a:ext cx="213360" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.14363</cdr:x>
-      <cdr:y>0.05828</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.95746</cdr:x>
-      <cdr:y>0.7196</cdr:y>
-    </cdr:to>
-    <cdr:cxnSp macro="">
-      <cdr:nvCxnSpPr>
-        <cdr:cNvPr id="3" name="Straight Connector 2">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{71D34628-9E02-ED97-3D76-9F236D61FA8A}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvCxnSpPr/>
-      </cdr:nvCxnSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipV="1">
-          <a:off x="620460" y="251755"/>
-          <a:ext cx="3515777" cy="2856901"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-      </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </cdr:style>
-    </cdr:cxnSp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9458,7 +9315,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -9573,7 +9430,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -10983,10 +10840,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D00978-96AD-440F-AA3F-9C948C561128}">
-  <dimension ref="A1:AU84"/>
+  <dimension ref="A1:AX84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AP7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="BE24" sqref="BE24"/>
+    <sheetView tabSelected="1" topLeftCell="AR7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="BL12" sqref="BL12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11022,7 +10879,7 @@
     <col min="44" max="44" width="13.44140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:47" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:50" ht="23.4" x14ac:dyDescent="0.45">
       <c r="B1" s="4" t="s">
         <v>33</v>
       </c>
@@ -11041,7 +10898,7 @@
       <c r="AG1"/>
       <c r="AL1"/>
     </row>
-    <row r="2" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
       <c r="H2"/>
       <c r="K2" s="6" t="s">
         <v>8</v>
@@ -11064,7 +10921,7 @@
       <c r="AG2" s="1"/>
       <c r="AL2"/>
     </row>
-    <row r="3" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
       <c r="H3"/>
       <c r="K3" s="6" t="s">
         <v>9</v>
@@ -11087,7 +10944,7 @@
       <c r="AG3" s="1"/>
       <c r="AL3"/>
     </row>
-    <row r="4" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
       <c r="H4"/>
       <c r="R4"/>
       <c r="V4"/>
@@ -11104,7 +10961,7 @@
       <c r="AG4" s="1"/>
       <c r="AL4"/>
     </row>
-    <row r="5" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
       <c r="H5"/>
       <c r="R5"/>
       <c r="V5"/>
@@ -11113,7 +10970,7 @@
       <c r="AG5"/>
       <c r="AL5"/>
     </row>
-    <row r="6" spans="1:47" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:50" ht="42" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -11223,7 +11080,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>1.0960399999999999</v>
       </c>
@@ -11359,7 +11216,7 @@
         <v>0.74580000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>1.0263</v>
       </c>
@@ -11491,7 +11348,7 @@
         <v>0.74409999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>0.94349000000000005</v>
       </c>
@@ -11628,8 +11485,14 @@
       <c r="AR9" s="1">
         <v>0.74250000000000005</v>
       </c>
-    </row>
-    <row r="10" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>0.94342000000000004</v>
       </c>
@@ -11766,8 +11629,16 @@
       <c r="AR10" s="1">
         <v>0.74239999999999995</v>
       </c>
-    </row>
-    <row r="11" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AW10">
+        <f>AW9+0.1</f>
+        <v>0.1</v>
+      </c>
+      <c r="AX10">
+        <f>AX9+0.1</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>0.43031000000000003</v>
       </c>
@@ -11904,8 +11775,16 @@
       <c r="AR11" s="1">
         <v>0.74760000000000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AW11">
+        <f t="shared" ref="AW11:AX28" si="28">AW10+0.1</f>
+        <v>0.2</v>
+      </c>
+      <c r="AX11">
+        <f t="shared" si="28"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>0.42624000000000001</v>
       </c>
@@ -12042,8 +11921,16 @@
       <c r="AR12" s="1">
         <v>0.74939999999999996</v>
       </c>
-    </row>
-    <row r="13" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AW12">
+        <f t="shared" si="28"/>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="AX12">
+        <f t="shared" si="28"/>
+        <v>0.30000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>0.15548000000000001</v>
       </c>
@@ -12180,8 +12067,16 @@
       <c r="AR13" s="1">
         <v>0.7833</v>
       </c>
-    </row>
-    <row r="14" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AW13">
+        <f t="shared" si="28"/>
+        <v>0.4</v>
+      </c>
+      <c r="AX13">
+        <f t="shared" si="28"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>0.1148</v>
       </c>
@@ -12318,8 +12213,16 @@
       <c r="AR14" s="1">
         <v>0.79339999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AW14">
+        <f t="shared" si="28"/>
+        <v>0.5</v>
+      </c>
+      <c r="AX14">
+        <f t="shared" si="28"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>2.7969200000000001</v>
       </c>
@@ -12457,15 +12360,23 @@
         <v>0.90010000000000001</v>
       </c>
       <c r="AT15">
-        <f t="shared" ref="AT15:AT71" si="28">AQ15</f>
+        <f t="shared" ref="AT15:AT71" si="29">AQ15</f>
         <v>0.89269974336447477</v>
       </c>
       <c r="AU15">
-        <f t="shared" ref="AU15:AU71" si="29">AR15</f>
+        <f t="shared" ref="AU15:AU71" si="30">AR15</f>
         <v>0.90010000000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:47" x14ac:dyDescent="0.3">
+      <c r="AW15">
+        <f t="shared" si="28"/>
+        <v>0.6</v>
+      </c>
+      <c r="AX15">
+        <f t="shared" si="28"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>2.5790999999999999</v>
       </c>
@@ -12603,15 +12514,23 @@
         <v>0.88049999999999995</v>
       </c>
       <c r="AT16">
+        <f t="shared" si="29"/>
+        <v>0.88768657134562523</v>
+      </c>
+      <c r="AU16">
+        <f t="shared" si="30"/>
+        <v>0.88049999999999995</v>
+      </c>
+      <c r="AW16">
         <f t="shared" si="28"/>
-        <v>0.88768657134562523</v>
-      </c>
-      <c r="AU16">
-        <f t="shared" si="29"/>
-        <v>0.88049999999999995</v>
-      </c>
-    </row>
-    <row r="17" spans="1:47" x14ac:dyDescent="0.3">
+        <v>0.7</v>
+      </c>
+      <c r="AX16">
+        <f t="shared" si="28"/>
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>2.5750299999999999</v>
       </c>
@@ -12749,15 +12668,23 @@
         <v>0.88009999999999999</v>
       </c>
       <c r="AT17">
+        <f t="shared" si="29"/>
+        <v>0.8874729772413732</v>
+      </c>
+      <c r="AU17">
+        <f t="shared" si="30"/>
+        <v>0.88009999999999999</v>
+      </c>
+      <c r="AW17">
         <f t="shared" si="28"/>
-        <v>0.8874729772413732</v>
-      </c>
-      <c r="AU17">
-        <f t="shared" si="29"/>
-        <v>0.88009999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:47" x14ac:dyDescent="0.3">
+        <v>0.79999999999999993</v>
+      </c>
+      <c r="AX17">
+        <f t="shared" si="28"/>
+        <v>0.79999999999999993</v>
+      </c>
+    </row>
+    <row r="18" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>1.9464699999999999</v>
       </c>
@@ -12895,15 +12822,23 @@
         <v>0.82820000000000005</v>
       </c>
       <c r="AT18">
+        <f t="shared" si="29"/>
+        <v>0.82229479796580818</v>
+      </c>
+      <c r="AU18">
+        <f t="shared" si="30"/>
+        <v>0.82820000000000005</v>
+      </c>
+      <c r="AW18">
         <f t="shared" si="28"/>
-        <v>0.82229479796580818</v>
-      </c>
-      <c r="AU18">
-        <f t="shared" si="29"/>
-        <v>0.82820000000000005</v>
-      </c>
-    </row>
-    <row r="19" spans="1:47" x14ac:dyDescent="0.3">
+        <v>0.89999999999999991</v>
+      </c>
+      <c r="AX18">
+        <f t="shared" si="28"/>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>1.9030499999999999</v>
       </c>
@@ -13041,15 +12976,23 @@
         <v>0.82540000000000002</v>
       </c>
       <c r="AT19">
+        <f t="shared" si="29"/>
+        <v>0.81689658422107947</v>
+      </c>
+      <c r="AU19">
+        <f t="shared" si="30"/>
+        <v>0.82540000000000002</v>
+      </c>
+      <c r="AW19">
         <f t="shared" si="28"/>
-        <v>0.81689658422107947</v>
-      </c>
-      <c r="AU19">
-        <f t="shared" si="29"/>
-        <v>0.82540000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:47" x14ac:dyDescent="0.3">
+        <v>0.99999999999999989</v>
+      </c>
+      <c r="AX19">
+        <f t="shared" si="28"/>
+        <v>0.99999999999999989</v>
+      </c>
+    </row>
+    <row r="20" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>1.2143600000000001</v>
       </c>
@@ -13187,15 +13130,23 @@
         <v>0.77990000000000004</v>
       </c>
       <c r="AT20">
+        <f t="shared" si="29"/>
+        <v>0.76660348734102246</v>
+      </c>
+      <c r="AU20">
+        <f t="shared" si="30"/>
+        <v>0.77990000000000004</v>
+      </c>
+      <c r="AW20">
         <f t="shared" si="28"/>
-        <v>0.76660348734102246</v>
-      </c>
-      <c r="AU20">
-        <f t="shared" si="29"/>
-        <v>0.77990000000000004</v>
-      </c>
-    </row>
-    <row r="21" spans="1:47" x14ac:dyDescent="0.3">
+        <v>1.0999999999999999</v>
+      </c>
+      <c r="AX20">
+        <f t="shared" si="28"/>
+        <v>1.0999999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>1.19438</v>
       </c>
@@ -13333,15 +13284,23 @@
         <v>0.78010000000000002</v>
       </c>
       <c r="AT21">
+        <f t="shared" si="29"/>
+        <v>0.76654455751265738</v>
+      </c>
+      <c r="AU21">
+        <f t="shared" si="30"/>
+        <v>0.78010000000000002</v>
+      </c>
+      <c r="AW21">
         <f t="shared" si="28"/>
-        <v>0.76654455751265738</v>
-      </c>
-      <c r="AU21">
-        <f t="shared" si="29"/>
-        <v>0.78010000000000002</v>
-      </c>
-    </row>
-    <row r="22" spans="1:47" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1.2</v>
+      </c>
+      <c r="AX21">
+        <f t="shared" si="28"/>
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:50" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>1.16333</v>
       </c>
@@ -13479,15 +13438,23 @@
         <v>0.77749999999999997</v>
       </c>
       <c r="AT22">
+        <f t="shared" si="29"/>
+        <v>0.7665922051593731</v>
+      </c>
+      <c r="AU22">
+        <f t="shared" si="30"/>
+        <v>0.77749999999999997</v>
+      </c>
+      <c r="AW22">
         <f t="shared" si="28"/>
-        <v>0.7665922051593731</v>
-      </c>
-      <c r="AU22">
-        <f t="shared" si="29"/>
-        <v>0.77749999999999997</v>
-      </c>
-    </row>
-    <row r="23" spans="1:47" x14ac:dyDescent="0.3">
+        <v>1.3</v>
+      </c>
+      <c r="AX22">
+        <f t="shared" si="28"/>
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>1.13737</v>
       </c>
@@ -13625,15 +13592,23 @@
         <v>0.77610000000000001</v>
       </c>
       <c r="AT23">
+        <f t="shared" si="29"/>
+        <v>0.76675134078691765</v>
+      </c>
+      <c r="AU23">
+        <f t="shared" si="30"/>
+        <v>0.77610000000000001</v>
+      </c>
+      <c r="AW23">
         <f t="shared" si="28"/>
-        <v>0.76675134078691765</v>
-      </c>
-      <c r="AU23">
-        <f t="shared" si="29"/>
-        <v>0.77610000000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:47" x14ac:dyDescent="0.3">
+        <v>1.4000000000000001</v>
+      </c>
+      <c r="AX23">
+        <f t="shared" si="28"/>
+        <v>1.4000000000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>2.5646200000000001</v>
       </c>
@@ -13765,15 +13740,23 @@
         <v>0.87939999999999996</v>
       </c>
       <c r="AT24">
+        <f t="shared" si="29"/>
+        <v>0.88690839161497237</v>
+      </c>
+      <c r="AU24">
+        <f t="shared" si="30"/>
+        <v>0.87939999999999996</v>
+      </c>
+      <c r="AW24">
         <f t="shared" si="28"/>
-        <v>0.88690839161497237</v>
-      </c>
-      <c r="AU24">
-        <f t="shared" si="29"/>
-        <v>0.87939999999999996</v>
-      </c>
-    </row>
-    <row r="25" spans="1:47" x14ac:dyDescent="0.3">
+        <v>1.5000000000000002</v>
+      </c>
+      <c r="AX24">
+        <f t="shared" si="28"/>
+        <v>1.5000000000000002</v>
+      </c>
+    </row>
+    <row r="25" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>2.4317600000000001</v>
       </c>
@@ -13905,15 +13888,23 @@
         <v>0.86750000000000005</v>
       </c>
       <c r="AT25">
+        <f t="shared" si="29"/>
+        <v>0.8775556615512381</v>
+      </c>
+      <c r="AU25">
+        <f t="shared" si="30"/>
+        <v>0.86750000000000005</v>
+      </c>
+      <c r="AW25">
         <f t="shared" si="28"/>
-        <v>0.8775556615512381</v>
-      </c>
-      <c r="AU25">
-        <f t="shared" si="29"/>
-        <v>0.86750000000000005</v>
-      </c>
-    </row>
-    <row r="26" spans="1:47" x14ac:dyDescent="0.3">
+        <v>1.6000000000000003</v>
+      </c>
+      <c r="AX25">
+        <f t="shared" si="28"/>
+        <v>1.6000000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>2.2671299999999999</v>
       </c>
@@ -14045,15 +14036,23 @@
         <v>0.85389999999999999</v>
       </c>
       <c r="AT26">
+        <f t="shared" si="29"/>
+        <v>0.86138604864637769</v>
+      </c>
+      <c r="AU26">
+        <f t="shared" si="30"/>
+        <v>0.85389999999999999</v>
+      </c>
+      <c r="AW26">
         <f t="shared" si="28"/>
-        <v>0.86138604864637769</v>
-      </c>
-      <c r="AU26">
-        <f t="shared" si="29"/>
-        <v>0.85389999999999999</v>
-      </c>
-    </row>
-    <row r="27" spans="1:47" x14ac:dyDescent="0.3">
+        <v>1.7000000000000004</v>
+      </c>
+      <c r="AX26">
+        <f t="shared" si="28"/>
+        <v>1.7000000000000004</v>
+      </c>
+    </row>
+    <row r="27" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>2.00387</v>
       </c>
@@ -14185,15 +14184,23 @@
         <v>0.83260000000000001</v>
       </c>
       <c r="AT27">
+        <f t="shared" si="29"/>
+        <v>0.82951849989245119</v>
+      </c>
+      <c r="AU27">
+        <f t="shared" si="30"/>
+        <v>0.83260000000000001</v>
+      </c>
+      <c r="AW27">
         <f t="shared" si="28"/>
-        <v>0.82951849989245119</v>
-      </c>
-      <c r="AU27">
-        <f t="shared" si="29"/>
-        <v>0.83260000000000001</v>
-      </c>
-    </row>
-    <row r="28" spans="1:47" x14ac:dyDescent="0.3">
+        <v>1.8000000000000005</v>
+      </c>
+      <c r="AX27">
+        <f t="shared" si="28"/>
+        <v>1.8000000000000005</v>
+      </c>
+    </row>
+    <row r="28" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>1.91442</v>
       </c>
@@ -14325,15 +14332,23 @@
         <v>0.82699999999999996</v>
       </c>
       <c r="AT28">
+        <f t="shared" si="29"/>
+        <v>0.81830195942847117</v>
+      </c>
+      <c r="AU28">
+        <f t="shared" si="30"/>
+        <v>0.82699999999999996</v>
+      </c>
+      <c r="AW28">
         <f t="shared" si="28"/>
-        <v>0.81830195942847117</v>
-      </c>
-      <c r="AU28">
-        <f t="shared" si="29"/>
-        <v>0.82699999999999996</v>
-      </c>
-    </row>
-    <row r="29" spans="1:47" x14ac:dyDescent="0.3">
+        <v>1.9000000000000006</v>
+      </c>
+      <c r="AX28">
+        <f t="shared" si="28"/>
+        <v>1.9000000000000006</v>
+      </c>
+    </row>
+    <row r="29" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>1.8589100000000001</v>
       </c>
@@ -14465,15 +14480,15 @@
         <v>0.8216</v>
       </c>
       <c r="AT29">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.81151350987312498</v>
       </c>
       <c r="AU29">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.8216</v>
       </c>
     </row>
-    <row r="30" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>1.6414599999999999</v>
       </c>
@@ -14605,15 +14620,15 @@
         <v>0.80589999999999995</v>
       </c>
       <c r="AT30">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.78790497433784468</v>
       </c>
       <c r="AU30">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.80589999999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>1.46208</v>
       </c>
@@ -14745,15 +14760,15 @@
         <v>0.79420000000000002</v>
       </c>
       <c r="AT31">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.77422135542550485</v>
       </c>
       <c r="AU31">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.79420000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>1.36084</v>
       </c>
@@ -14885,11 +14900,11 @@
         <v>0.78800000000000003</v>
       </c>
       <c r="AT32">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.76949093861106632</v>
       </c>
       <c r="AU32">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.78800000000000003</v>
       </c>
     </row>
@@ -15025,11 +15040,11 @@
         <v>0.78090000000000004</v>
       </c>
       <c r="AT33">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.76671883473819458</v>
       </c>
       <c r="AU33">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.78090000000000004</v>
       </c>
     </row>
@@ -15165,11 +15180,11 @@
         <v>0.77569999999999995</v>
       </c>
       <c r="AT34">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.76712830800820742</v>
       </c>
       <c r="AU34">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.77569999999999995</v>
       </c>
     </row>
@@ -15305,11 +15320,11 @@
         <v>0.76890000000000003</v>
       </c>
       <c r="AT35">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.76941183907369515</v>
       </c>
       <c r="AU35">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.76890000000000003</v>
       </c>
     </row>
@@ -15445,11 +15460,11 @@
         <v>0.76590000000000003</v>
       </c>
       <c r="AT36">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.77076499395109788</v>
       </c>
       <c r="AU36">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.76590000000000003</v>
       </c>
     </row>
@@ -15585,11 +15600,11 @@
         <v>0.76500000000000001</v>
       </c>
       <c r="AT37">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.77091774416082515</v>
       </c>
       <c r="AU37">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.76500000000000001</v>
       </c>
     </row>
@@ -15725,11 +15740,11 @@
         <v>0.78820000000000001</v>
       </c>
       <c r="AT38">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.7846116597075965</v>
       </c>
       <c r="AU38">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.78820000000000001</v>
       </c>
     </row>
@@ -15865,11 +15880,11 @@
         <v>0.78749999999999998</v>
       </c>
       <c r="AT39">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.78419607343218001</v>
       </c>
       <c r="AU39">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.78749999999999998</v>
       </c>
     </row>
@@ -16005,11 +16020,11 @@
         <v>0.78600000000000003</v>
       </c>
       <c r="AT40">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.78138986523727028</v>
       </c>
       <c r="AU40">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.78600000000000003</v>
       </c>
     </row>
@@ -16145,11 +16160,11 @@
         <v>0.78490000000000004</v>
       </c>
       <c r="AT41">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.77639766769479412</v>
       </c>
       <c r="AU41">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.78490000000000004</v>
       </c>
     </row>
@@ -16285,11 +16300,11 @@
         <v>0.78359999999999996</v>
       </c>
       <c r="AT42">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.76670543121302348</v>
       </c>
       <c r="AU42">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.78359999999999996</v>
       </c>
     </row>
@@ -17481,11 +17496,11 @@
         <v>0.93899999999999995</v>
       </c>
       <c r="AT51">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.94335378750288057</v>
       </c>
       <c r="AU51">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.93899999999999995</v>
       </c>
     </row>
@@ -17621,11 +17636,11 @@
         <v>0.92849999999999999</v>
       </c>
       <c r="AT52">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.9351871899641544</v>
       </c>
       <c r="AU52">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.92849999999999999</v>
       </c>
     </row>
@@ -17761,11 +17776,11 @@
         <v>0.86890000000000001</v>
       </c>
       <c r="AT53">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.86285132061673442</v>
       </c>
       <c r="AU53">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.86890000000000001</v>
       </c>
     </row>
@@ -17901,11 +17916,11 @@
         <v>0.83320000000000005</v>
       </c>
       <c r="AT54">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.81370847574829164</v>
       </c>
       <c r="AU54">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.83320000000000005</v>
       </c>
     </row>
@@ -18041,11 +18056,11 @@
         <v>0.8115</v>
       </c>
       <c r="AT55">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.7939055308345776</v>
       </c>
       <c r="AU55">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.8115</v>
       </c>
     </row>
@@ -18181,11 +18196,11 @@
         <v>0.80889999999999995</v>
       </c>
       <c r="AT56">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.7922437943155205</v>
       </c>
       <c r="AU56">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.80889999999999995</v>
       </c>
     </row>
@@ -18321,11 +18336,11 @@
         <v>0.79159999999999997</v>
       </c>
       <c r="AT57">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.78695351560083271</v>
       </c>
       <c r="AU57">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.79159999999999997</v>
       </c>
     </row>
@@ -18461,11 +18476,11 @@
         <v>0.7893</v>
       </c>
       <c r="AT58">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.78673362074081621</v>
       </c>
       <c r="AU58">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.7893</v>
       </c>
     </row>
@@ -18601,11 +18616,11 @@
         <v>0.7843</v>
       </c>
       <c r="AT59">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.7854911290820068</v>
       </c>
       <c r="AU59">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.7843</v>
       </c>
     </row>
@@ -18741,11 +18756,11 @@
         <v>0.76339999999999997</v>
       </c>
       <c r="AT60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.78820296142452151</v>
       </c>
       <c r="AU60">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.76339999999999997</v>
       </c>
     </row>
@@ -18881,11 +18896,11 @@
         <v>0.76170000000000004</v>
       </c>
       <c r="AT61">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.78789735467023703</v>
       </c>
       <c r="AU61">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.76170000000000004</v>
       </c>
     </row>
@@ -19021,11 +19036,11 @@
         <v>0.96289999999999998</v>
       </c>
       <c r="AT62">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.95441741296299187</v>
       </c>
       <c r="AU62">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.96289999999999998</v>
       </c>
     </row>
@@ -19161,11 +19176,11 @@
         <v>0.96060000000000001</v>
       </c>
       <c r="AT63">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.9541114117243763</v>
       </c>
       <c r="AU63">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.96060000000000001</v>
       </c>
     </row>
@@ -19301,11 +19316,11 @@
         <v>0.9476</v>
       </c>
       <c r="AT64">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.95050719221639624</v>
       </c>
       <c r="AU64">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.9476</v>
       </c>
     </row>
@@ -19441,11 +19456,11 @@
         <v>0.91900000000000004</v>
       </c>
       <c r="AT65">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.93119761989592975</v>
       </c>
       <c r="AU65">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.91900000000000004</v>
       </c>
     </row>
@@ -19581,11 +19596,11 @@
         <v>0.89790000000000003</v>
       </c>
       <c r="AT66">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.90823729269878817</v>
       </c>
       <c r="AU66">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.89790000000000003</v>
       </c>
     </row>
@@ -19721,11 +19736,11 @@
         <v>0.88390000000000002</v>
       </c>
       <c r="AT67">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.88988525809747077</v>
       </c>
       <c r="AU67">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.88390000000000002</v>
       </c>
     </row>
@@ -19861,11 +19876,11 @@
         <v>0.83340000000000003</v>
       </c>
       <c r="AT68">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.8181181367341841</v>
       </c>
       <c r="AU68">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.83340000000000003</v>
       </c>
     </row>
@@ -20001,11 +20016,11 @@
         <v>0.79690000000000005</v>
       </c>
       <c r="AT69">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.78844742641251309</v>
       </c>
       <c r="AU69">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.79690000000000005</v>
       </c>
     </row>
@@ -20141,11 +20156,11 @@
         <v>0.7823</v>
       </c>
       <c r="AT70">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.78558276910401126</v>
       </c>
       <c r="AU70">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.7823</v>
       </c>
     </row>
@@ -20234,7 +20249,7 @@
         <v>3222.7493614805044</v>
       </c>
       <c r="AA71">
-        <f t="shared" ref="AA71" si="30">D71/(1000+D71)</f>
+        <f t="shared" ref="AA71" si="31">D71/(1000+D71)</f>
         <v>7.2223947052743986E-2</v>
       </c>
       <c r="AB71">
@@ -20262,7 +20277,7 @@
         <v>-47.750139079775813</v>
       </c>
       <c r="AM71">
-        <f t="shared" ref="AM71" si="31">(Q71-U71)+X71-AC71-AK71</f>
+        <f t="shared" ref="AM71" si="32">(Q71-U71)+X71-AC71-AK71</f>
         <v>-29.758326428987253</v>
       </c>
       <c r="AN71" s="1">
@@ -20281,11 +20296,11 @@
         <v>0.77590000000000003</v>
       </c>
       <c r="AT71">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.77827380953468461</v>
       </c>
       <c r="AU71">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0.77590000000000003</v>
       </c>
     </row>
@@ -21358,8 +21373,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA53125-8324-42F8-BF4C-83E8BB87300B}">
   <dimension ref="A1:E60"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="S12" sqref="S12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21399,12 +21414,6 @@
       <c r="B3" s="1">
         <v>271.77023032931601</v>
       </c>
-      <c r="D3">
-        <v>0.13125400000000001</v>
-      </c>
-      <c r="E3">
-        <v>259</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
@@ -21413,12 +21422,6 @@
       <c r="B4" s="1">
         <v>270.10528340824402</v>
       </c>
-      <c r="D4">
-        <v>8.5834900000000006E-2</v>
-      </c>
-      <c r="E4">
-        <v>260</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -21427,12 +21430,6 @@
       <c r="B5" s="1">
         <v>268.44208538099599</v>
       </c>
-      <c r="D5">
-        <v>0.14215900000000001</v>
-      </c>
-      <c r="E5">
-        <v>261</v>
-      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -21441,12 +21438,6 @@
       <c r="B6" s="1">
         <v>267.91479389286201</v>
       </c>
-      <c r="D6">
-        <v>0.14127400000000001</v>
-      </c>
-      <c r="E6">
-        <v>262</v>
-      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -21469,12 +21460,6 @@
       <c r="B8" s="1">
         <v>260.064009513982</v>
       </c>
-      <c r="D8">
-        <v>0.13661799999999999</v>
-      </c>
-      <c r="E8">
-        <v>264</v>
-      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -21482,12 +21467,6 @@
       </c>
       <c r="B9" s="1">
         <v>254.423826929467</v>
-      </c>
-      <c r="D9">
-        <v>2.6268300000000001E-2</v>
-      </c>
-      <c r="E9">
-        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -22290,20 +22269,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22326,14 +22305,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71225005-2353-48CA-B97F-AA326ECE473F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715EA469-2506-458C-8899-792543708004}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -22348,4 +22319,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71225005-2353-48CA-B97F-AA326ECE473F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/CURRENT WORK/SALT WORK - CODES/N = 4/Li2SO4 - Done/Test_excelsheet for Li2SO4 n=4.xlsx
+++ b/CURRENT WORK/SALT WORK - CODES/N = 4/Li2SO4 - Done/Test_excelsheet for Li2SO4 n=4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\Final-Year-Project\CURRENT WORK\SALT WORK - CODES\N = 4\Li2SO4 - Done\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80370323-39F8-4F68-9ADA-068015921FD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA89D059-E816-4C9B-A1C8-2137CAED5B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" firstSheet="1" activeTab="1" xr2:uid="{86974002-CAD5-4FCC-AF77-EBAA345E04BF}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" firstSheet="1" activeTab="4" xr2:uid="{86974002-CAD5-4FCC-AF77-EBAA345E04BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp - Osmotic Coefficient" sheetId="1" r:id="rId1"/>
@@ -4347,159 +4347,159 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="216"/>
                 <c:pt idx="3">
+                  <c:v>1.1599E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.2728E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7.7306899999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>0.14638200000000001</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>7.7306899999999998E-2</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.2728E-2</c:v>
+                  <c:v>0.15426799999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.1599E-2</c:v>
+                  <c:v>0.15471199999999999</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0.15515899999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.15471199999999999</c:v>
+                  <c:v>0.15022199999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.15426799999999999</c:v>
+                  <c:v>0.149034</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.15022199999999999</c:v>
+                  <c:v>0.146284</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.149034</c:v>
+                  <c:v>0.14768200000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.146284</c:v>
+                  <c:v>0.145094</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.14768200000000001</c:v>
+                  <c:v>0.142119</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.145094</c:v>
+                  <c:v>0.140739</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.142119</c:v>
+                  <c:v>0.13941500000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.140739</c:v>
+                  <c:v>0.138934</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.13941500000000001</c:v>
+                  <c:v>0.13830700000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.138934</c:v>
+                  <c:v>0.137847</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.13830700000000001</c:v>
+                  <c:v>0.137546</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.137847</c:v>
+                  <c:v>0.13739699999999999</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.137546</c:v>
+                  <c:v>0.137102</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.13739699999999999</c:v>
+                  <c:v>0.13695599999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0.137102</c:v>
+                  <c:v>0.13582900000000001</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0.13695599999999999</c:v>
+                  <c:v>0.13542499999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0.13582900000000001</c:v>
+                  <c:v>0.135293</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0.13542499999999999</c:v>
+                  <c:v>0.13439899999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.135293</c:v>
+                  <c:v>0.13391400000000001</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.13439899999999999</c:v>
+                  <c:v>0.133796</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.13391400000000001</c:v>
+                  <c:v>0.13356299999999999</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.133796</c:v>
+                  <c:v>0.132077</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0.13356299999999999</c:v>
+                  <c:v>0.13117200000000001</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.132077</c:v>
+                  <c:v>0.13100700000000001</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0.13117200000000001</c:v>
+                  <c:v>0.13092699999999999</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0.13100700000000001</c:v>
+                  <c:v>0.130694</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0.13092699999999999</c:v>
+                  <c:v>0.13001199999999999</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0.130694</c:v>
+                  <c:v>0.129302</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0.13001199999999999</c:v>
+                  <c:v>0.12926299999999999</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0.129302</c:v>
+                  <c:v>0.12889300000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0.12926299999999999</c:v>
+                  <c:v>0.12886</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0.12889300000000001</c:v>
+                  <c:v>0.128801</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0.12886</c:v>
+                  <c:v>0.12879699999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0.128801</c:v>
+                  <c:v>0.12882299999999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0.12879699999999999</c:v>
+                  <c:v>0.128861</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0.12882299999999999</c:v>
+                  <c:v>0.12895899999999999</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0.128861</c:v>
+                  <c:v>0.12898399999999999</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0.12895899999999999</c:v>
+                  <c:v>0.12901000000000001</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0.12898399999999999</c:v>
+                  <c:v>0.12909999999999999</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0.12901000000000001</c:v>
+                  <c:v>0.12928600000000001</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0.12909999999999999</c:v>
+                  <c:v>0.12941900000000001</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0.12928600000000001</c:v>
+                  <c:v>0.12951599999999999</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0.12941900000000001</c:v>
+                  <c:v>0.12956799999999999</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0.12951599999999999</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.12956799999999999</c:v>
-                </c:pt>
-                <c:pt idx="56">
                   <c:v>0.12962099999999999</c:v>
                 </c:pt>
               </c:numCache>
@@ -4512,159 +4512,159 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="216"/>
                 <c:pt idx="3">
+                  <c:v>268</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>267</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>266</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>263</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>266</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>267</c:v>
+                  <c:v>262</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>268</c:v>
+                  <c:v>260</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>258</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>260</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>262</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>285</c:v>
+                  <c:v>296</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>294</c:v>
+                  <c:v>299</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>296</c:v>
+                  <c:v>302</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>299</c:v>
+                  <c:v>320</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>302</c:v>
+                  <c:v>328</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>320</c:v>
+                  <c:v>336</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>328</c:v>
+                  <c:v>339</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>336</c:v>
+                  <c:v>343</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>339</c:v>
+                  <c:v>346</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>343</c:v>
+                  <c:v>348</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>346</c:v>
+                  <c:v>349</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>348</c:v>
+                  <c:v>351</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>349</c:v>
+                  <c:v>352</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>351</c:v>
+                  <c:v>360</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>352</c:v>
+                  <c:v>363</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>360</c:v>
+                  <c:v>364</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>363</c:v>
+                  <c:v>371</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>364</c:v>
+                  <c:v>375</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>371</c:v>
+                  <c:v>376</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>375</c:v>
+                  <c:v>378</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>376</c:v>
+                  <c:v>392</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>378</c:v>
+                  <c:v>402</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>392</c:v>
+                  <c:v>404</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>402</c:v>
+                  <c:v>405</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>404</c:v>
+                  <c:v>408</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>405</c:v>
+                  <c:v>418</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>408</c:v>
+                  <c:v>432</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>418</c:v>
+                  <c:v>433</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>432</c:v>
+                  <c:v>446</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>433</c:v>
+                  <c:v>448</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>446</c:v>
+                  <c:v>454</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>448</c:v>
+                  <c:v>455</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>454</c:v>
+                  <c:v>463</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>455</c:v>
+                  <c:v>466</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>463</c:v>
+                  <c:v>470</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>466</c:v>
+                  <c:v>471</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>470</c:v>
+                  <c:v>472</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>471</c:v>
+                  <c:v>475</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>472</c:v>
+                  <c:v>480</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>475</c:v>
+                  <c:v>483</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>480</c:v>
+                  <c:v>485</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>483</c:v>
+                  <c:v>486</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>485</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>486</c:v>
-                </c:pt>
-                <c:pt idx="56">
                   <c:v>487</c:v>
                 </c:pt>
               </c:numCache>
@@ -10842,7 +10842,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D00978-96AD-440F-AA3F-9C948C561128}">
   <dimension ref="A1:AX84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="AR7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BL12" sqref="BL12"/>
     </sheetView>
   </sheetViews>
@@ -20659,7 +20659,7 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView zoomScale="102" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="S25" sqref="S25"/>
+      <selection activeCell="D4" sqref="D4:E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21371,10 +21371,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA53125-8324-42F8-BF4C-83E8BB87300B}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -21447,10 +21447,10 @@
         <v>263.97715944664998</v>
       </c>
       <c r="D7">
-        <v>0.14638200000000001</v>
+        <v>1.1599E-2</v>
       </c>
       <c r="E7">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -21460,6 +21460,12 @@
       <c r="B8" s="1">
         <v>260.064009513982</v>
       </c>
+      <c r="D8">
+        <v>1.2728E-2</v>
+      </c>
+      <c r="E8">
+        <v>267</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -21468,6 +21474,12 @@
       <c r="B9" s="1">
         <v>254.423826929467</v>
       </c>
+      <c r="D9">
+        <v>7.7306899999999998E-2</v>
+      </c>
+      <c r="E9">
+        <v>266</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -21477,10 +21489,10 @@
         <v>252.75800556148201</v>
       </c>
       <c r="D10">
-        <v>7.7306899999999998E-2</v>
+        <v>0.14638200000000001</v>
       </c>
       <c r="E10">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -21491,10 +21503,10 @@
         <v>255.604330261109</v>
       </c>
       <c r="D11">
-        <v>1.2728E-2</v>
+        <v>0.15426799999999999</v>
       </c>
       <c r="E11">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -21505,10 +21517,10 @@
         <v>256.74023680022299</v>
       </c>
       <c r="D12">
-        <v>1.1599E-2</v>
+        <v>0.15471199999999999</v>
       </c>
       <c r="E12">
-        <v>268</v>
+        <v>260</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -21533,10 +21545,10 @@
         <v>263.56791829167997</v>
       </c>
       <c r="D14">
-        <v>0.15471199999999999</v>
+        <v>0.15022199999999999</v>
       </c>
       <c r="E14">
-        <v>260</v>
+        <v>285</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -21547,10 +21559,10 @@
         <v>268.12028891725902</v>
       </c>
       <c r="D15">
-        <v>0.15426799999999999</v>
+        <v>0.149034</v>
       </c>
       <c r="E15">
-        <v>262</v>
+        <v>294</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -21561,10 +21573,10 @@
         <v>272.10252015600099</v>
       </c>
       <c r="D16">
-        <v>0.15022199999999999</v>
+        <v>0.146284</v>
       </c>
       <c r="E16">
-        <v>285</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -21575,10 +21587,10 @@
         <v>281.77127966561102</v>
       </c>
       <c r="D17">
-        <v>0.149034</v>
+        <v>0.14768200000000001</v>
       </c>
       <c r="E17">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -21589,10 +21601,10 @@
         <v>289.16647720316899</v>
       </c>
       <c r="D18">
-        <v>0.146284</v>
+        <v>0.145094</v>
       </c>
       <c r="E18">
-        <v>296</v>
+        <v>302</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -21603,10 +21615,10 @@
         <v>295.992409800801</v>
       </c>
       <c r="D19">
-        <v>0.14768200000000001</v>
+        <v>0.142119</v>
       </c>
       <c r="E19">
-        <v>299</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -21617,10 +21629,10 @@
         <v>303.38848178527002</v>
       </c>
       <c r="D20">
-        <v>0.145094</v>
+        <v>0.140739</v>
       </c>
       <c r="E20">
-        <v>302</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -21631,10 +21643,10 @@
         <v>307.37071302401199</v>
       </c>
       <c r="D21">
-        <v>0.142119</v>
+        <v>0.13941500000000001</v>
       </c>
       <c r="E21">
-        <v>320</v>
+        <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.3">
@@ -21645,10 +21657,10 @@
         <v>313.63000402245501</v>
       </c>
       <c r="D22">
-        <v>0.140739</v>
+        <v>0.138934</v>
       </c>
       <c r="E22">
-        <v>328</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
@@ -21659,10 +21671,10 @@
         <v>319.89104391472398</v>
       </c>
       <c r="D23">
-        <v>0.13941500000000001</v>
+        <v>0.13830700000000001</v>
       </c>
       <c r="E23">
-        <v>336</v>
+        <v>343</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
@@ -21673,10 +21685,10 @@
         <v>323.87152625964001</v>
       </c>
       <c r="D24">
-        <v>0.138934</v>
+        <v>0.137847</v>
       </c>
       <c r="E24">
-        <v>339</v>
+        <v>346</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
@@ -21687,10 +21699,10 @@
         <v>327.28536700536898</v>
       </c>
       <c r="D25">
-        <v>0.13830700000000001</v>
+        <v>0.137546</v>
       </c>
       <c r="E25">
-        <v>343</v>
+        <v>348</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
@@ -21701,10 +21713,10 @@
         <v>339.23118627468102</v>
       </c>
       <c r="D26">
-        <v>0.137847</v>
+        <v>0.13739699999999999</v>
       </c>
       <c r="E26">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -21715,10 +21727,10 @@
         <v>348.90694135959001</v>
       </c>
       <c r="D27">
-        <v>0.137546</v>
+        <v>0.137102</v>
       </c>
       <c r="E27">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -21729,10 +21741,10 @@
         <v>350.04109900487902</v>
       </c>
       <c r="D28">
-        <v>0.13739699999999999</v>
+        <v>0.13695599999999999</v>
       </c>
       <c r="E28">
-        <v>349</v>
+        <v>352</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.3">
@@ -21743,10 +21755,10 @@
         <v>365.41125238286702</v>
       </c>
       <c r="D29">
-        <v>0.137102</v>
+        <v>0.13582900000000001</v>
       </c>
       <c r="E29">
-        <v>351</v>
+        <v>360</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.3">
@@ -21757,10 +21769,10 @@
         <v>368.82334423477101</v>
       </c>
       <c r="D30">
-        <v>0.13695599999999999</v>
+        <v>0.13542499999999999</v>
       </c>
       <c r="E30">
-        <v>352</v>
+        <v>363</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.3">
@@ -21771,10 +21783,10 @@
         <v>372.806449920425</v>
       </c>
       <c r="D31">
-        <v>0.13582900000000001</v>
+        <v>0.135293</v>
       </c>
       <c r="E31">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -21785,10 +21797,10 @@
         <v>377.36056943982902</v>
       </c>
       <c r="D32">
-        <v>0.13542499999999999</v>
+        <v>0.13439899999999999</v>
       </c>
       <c r="E32">
-        <v>363</v>
+        <v>371</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.3">
@@ -21799,10 +21811,10 @@
         <v>418.33452841078002</v>
       </c>
       <c r="D33">
-        <v>0.135293</v>
+        <v>0.13391400000000001</v>
       </c>
       <c r="E33">
-        <v>364</v>
+        <v>375</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.3">
@@ -21813,10 +21825,10 @@
         <v>461.02590111754301</v>
       </c>
       <c r="D34">
-        <v>0.13439899999999999</v>
+        <v>0.133796</v>
       </c>
       <c r="E34">
-        <v>371</v>
+        <v>376</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.3">
@@ -21827,213 +21839,200 @@
         <v>488.35324157470399</v>
       </c>
       <c r="D35">
-        <v>0.13391400000000001</v>
+        <v>0.13356299999999999</v>
       </c>
       <c r="E35">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D36">
-        <v>0.133796</v>
+        <v>0.132077</v>
       </c>
       <c r="E36">
-        <v>376</v>
+        <v>392</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D37">
-        <v>0.13356299999999999</v>
+        <v>0.13117200000000001</v>
       </c>
       <c r="E37">
-        <v>378</v>
+        <v>402</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D38">
-        <v>0.132077</v>
+        <v>0.13100700000000001</v>
       </c>
       <c r="E38">
-        <v>392</v>
+        <v>404</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D39">
-        <v>0.13117200000000001</v>
+        <v>0.13092699999999999</v>
       </c>
       <c r="E39">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D40">
-        <v>0.13100700000000001</v>
+        <v>0.130694</v>
       </c>
       <c r="E40">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D41">
-        <v>0.13092699999999999</v>
+        <v>0.13001199999999999</v>
       </c>
       <c r="E41">
-        <v>405</v>
+        <v>418</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D42">
-        <v>0.130694</v>
+        <v>0.129302</v>
       </c>
       <c r="E42">
-        <v>408</v>
+        <v>432</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D43">
-        <v>0.13001199999999999</v>
+        <v>0.12926299999999999</v>
       </c>
       <c r="E43">
-        <v>418</v>
+        <v>433</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D44">
-        <v>0.129302</v>
+        <v>0.12889300000000001</v>
       </c>
       <c r="E44">
-        <v>432</v>
+        <v>446</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D45">
-        <v>0.12926299999999999</v>
+        <v>0.12886</v>
       </c>
       <c r="E45">
-        <v>433</v>
+        <v>448</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D46">
-        <v>0.12889300000000001</v>
+        <v>0.128801</v>
       </c>
       <c r="E46">
-        <v>446</v>
+        <v>454</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D47">
-        <v>0.12886</v>
+        <v>0.12879699999999999</v>
       </c>
       <c r="E47">
-        <v>448</v>
+        <v>455</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D48">
-        <v>0.128801</v>
+        <v>0.12882299999999999</v>
       </c>
       <c r="E48">
-        <v>454</v>
+        <v>463</v>
       </c>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D49">
-        <v>0.12879699999999999</v>
+        <v>0.128861</v>
       </c>
       <c r="E49">
-        <v>455</v>
+        <v>466</v>
       </c>
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D50">
-        <v>0.12882299999999999</v>
+        <v>0.12895899999999999</v>
       </c>
       <c r="E50">
-        <v>463</v>
+        <v>470</v>
       </c>
     </row>
     <row r="51" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D51">
-        <v>0.128861</v>
+        <v>0.12898399999999999</v>
       </c>
       <c r="E51">
-        <v>466</v>
+        <v>471</v>
       </c>
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D52">
-        <v>0.12895899999999999</v>
+        <v>0.12901000000000001</v>
       </c>
       <c r="E52">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="53" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D53">
-        <v>0.12898399999999999</v>
+        <v>0.12909999999999999</v>
       </c>
       <c r="E53">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="54" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D54">
-        <v>0.12901000000000001</v>
+        <v>0.12928600000000001</v>
       </c>
       <c r="E54">
-        <v>472</v>
+        <v>480</v>
       </c>
     </row>
     <row r="55" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D55">
-        <v>0.12909999999999999</v>
+        <v>0.12941900000000001</v>
       </c>
       <c r="E55">
-        <v>475</v>
+        <v>483</v>
       </c>
     </row>
     <row r="56" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D56">
-        <v>0.12928600000000001</v>
+        <v>0.12951599999999999</v>
       </c>
       <c r="E56">
-        <v>480</v>
+        <v>485</v>
       </c>
     </row>
     <row r="57" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D57">
-        <v>0.12941900000000001</v>
+        <v>0.12956799999999999</v>
       </c>
       <c r="E57">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="58" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D58">
-        <v>0.12951599999999999</v>
+        <v>0.12962099999999999</v>
       </c>
       <c r="E58">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="59" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D59">
-        <v>0.12956799999999999</v>
-      </c>
-      <c r="E59">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="60" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D60">
-        <v>0.12962099999999999</v>
-      </c>
-      <c r="E60">
         <v>487</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D7:E13">
+    <sortCondition ref="D7:D13"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -22269,20 +22268,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -22305,6 +22304,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71225005-2353-48CA-B97F-AA326ECE473F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715EA469-2506-458C-8899-792543708004}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
@@ -22319,12 +22326,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71225005-2353-48CA-B97F-AA326ECE473F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/CURRENT WORK/SALT WORK - CODES/N = 4/Li2SO4 - Done/Test_excelsheet for Li2SO4 n=4.xlsx
+++ b/CURRENT WORK/SALT WORK - CODES/N = 4/Li2SO4 - Done/Test_excelsheet for Li2SO4 n=4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dhanu\OneDrive\Desktop\Final-Year-Project\CURRENT WORK\SALT WORK - CODES\N = 4\Li2SO4 - Done\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://jda365-my.sharepoint.com/personal/dhanush_tamilselvan_jda_com/Documents/Desktop/Final-Year-Project/CURRENT WORK/SALT WORK - CODES/N = 4/Li2SO4 - Done/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA89D059-E816-4C9B-A1C8-2137CAED5B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{EA89D059-E816-4C9B-A1C8-2137CAED5B2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AD87091D-6079-44DE-97E6-77B2AEDAA703}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="657" firstSheet="1" activeTab="4" xr2:uid="{86974002-CAD5-4FCC-AF77-EBAA345E04BF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="657" firstSheet="1" activeTab="1" xr2:uid="{86974002-CAD5-4FCC-AF77-EBAA345E04BF}"/>
   </bookViews>
   <sheets>
     <sheet name="Exp - Osmotic Coefficient" sheetId="1" r:id="rId1"/>
@@ -646,88 +646,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1320"/>
-              <a:t>Fig 18.</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1320" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1320"/>
-              <a:t>Parity Plot for Li</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-IN" sz="900"/>
-              <a:t>2</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1320"/>
-              <a:t>SO</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-IN" sz="900"/>
-              <a:t>4</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-IN" sz="1320"/>
-              <a:t> for n=4</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.2410872685185185"/>
-          <c:y val="0.895212037037037"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1440" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Palatino Linotype" panose="02040502050505030304" pitchFamily="18" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -9948,20 +9867,20 @@
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.08984375" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
-    <col min="3" max="3" width="17.77734375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.21875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="17.81640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.1796875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.08984375" style="1" customWidth="1"/>
     <col min="10" max="10" width="15" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.77734375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.81640625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -9969,7 +9888,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
@@ -9981,7 +9900,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -10001,7 +9920,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>0.1</v>
       </c>
@@ -10021,7 +9940,7 @@
         <v>0.74580000000000002</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>0.2</v>
       </c>
@@ -10041,7 +9960,7 @@
         <v>0.74409999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>0.3</v>
       </c>
@@ -10061,7 +9980,7 @@
         <v>0.74250000000000005</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>0.4</v>
       </c>
@@ -10081,7 +10000,7 @@
         <v>0.74239999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>0.5</v>
       </c>
@@ -10101,7 +10020,7 @@
         <v>0.74760000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0.6</v>
       </c>
@@ -10121,7 +10040,7 @@
         <v>0.74939999999999996</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0.7</v>
       </c>
@@ -10141,7 +10060,7 @@
         <v>0.7833</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>0.8</v>
       </c>
@@ -10161,7 +10080,7 @@
         <v>0.79339999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>1</v>
       </c>
@@ -10181,7 +10100,7 @@
         <v>0.90010000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>1.5</v>
       </c>
@@ -10201,7 +10120,7 @@
         <v>0.88049999999999995</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2</v>
       </c>
@@ -10221,7 +10140,7 @@
         <v>0.88009999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2.5</v>
       </c>
@@ -10241,7 +10160,7 @@
         <v>0.82820000000000005</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -10261,7 +10180,7 @@
         <v>0.82540000000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E18" s="1">
         <v>1.2143600000000001</v>
       </c>
@@ -10272,7 +10191,7 @@
         <v>0.77990000000000004</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E19" s="1">
         <v>1.19438</v>
       </c>
@@ -10283,7 +10202,7 @@
         <v>0.78010000000000002</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E20" s="1">
         <v>1.16333</v>
       </c>
@@ -10294,7 +10213,7 @@
         <v>0.77749999999999997</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E21" s="1">
         <v>1.13737</v>
       </c>
@@ -10305,7 +10224,7 @@
         <v>0.77610000000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E22" s="1">
         <v>2.5646200000000001</v>
       </c>
@@ -10316,7 +10235,7 @@
         <v>0.87939999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E23" s="1">
         <v>2.4317600000000001</v>
       </c>
@@ -10327,7 +10246,7 @@
         <v>0.86750000000000005</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E24" s="1">
         <v>2.2671299999999999</v>
       </c>
@@ -10338,7 +10257,7 @@
         <v>0.85389999999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E25" s="1">
         <v>2.00387</v>
       </c>
@@ -10349,7 +10268,7 @@
         <v>0.83260000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E26" s="1">
         <v>1.91442</v>
       </c>
@@ -10360,7 +10279,7 @@
         <v>0.82699999999999996</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E27" s="1">
         <v>1.8589100000000001</v>
       </c>
@@ -10371,7 +10290,7 @@
         <v>0.8216</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E28" s="1">
         <v>1.6414599999999999</v>
       </c>
@@ -10382,7 +10301,7 @@
         <v>0.80589999999999995</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E29" s="1">
         <v>1.46208</v>
       </c>
@@ -10393,7 +10312,7 @@
         <v>0.79420000000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E30" s="1">
         <v>1.36084</v>
       </c>
@@ -10404,7 +10323,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E31" s="1">
         <v>1.2321599999999999</v>
       </c>
@@ -10415,7 +10334,7 @@
         <v>0.78090000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="E32" s="1">
         <v>1.10141</v>
       </c>
@@ -10426,7 +10345,7 @@
         <v>0.77569999999999995</v>
       </c>
     </row>
-    <row r="33" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E33" s="1">
         <v>0.97075</v>
       </c>
@@ -10437,7 +10356,7 @@
         <v>0.76890000000000003</v>
       </c>
     </row>
-    <row r="34" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E34" s="1">
         <v>0.88497999999999999</v>
       </c>
@@ -10448,7 +10367,7 @@
         <v>0.76590000000000003</v>
       </c>
     </row>
-    <row r="35" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E35" s="1">
         <v>0.8679</v>
       </c>
@@ -10459,7 +10378,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="36" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E36" s="1">
         <v>0.83052000000000004</v>
       </c>
@@ -10470,7 +10389,7 @@
         <v>0.78820000000000001</v>
       </c>
     </row>
-    <row r="37" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E37" s="1">
         <v>0.81701999999999997</v>
       </c>
@@ -10481,7 +10400,7 @@
         <v>0.78749999999999998</v>
       </c>
     </row>
-    <row r="38" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E38" s="1">
         <v>0.75353999999999999</v>
       </c>
@@ -10492,7 +10411,7 @@
         <v>0.78600000000000003</v>
       </c>
     </row>
-    <row r="39" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E39" s="1">
         <v>0.68657999999999997</v>
       </c>
@@ -10503,7 +10422,7 @@
         <v>0.78490000000000004</v>
       </c>
     </row>
-    <row r="40" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E40" s="1">
         <v>0.60733000000000004</v>
       </c>
@@ -10514,7 +10433,7 @@
         <v>0.78359999999999996</v>
       </c>
     </row>
-    <row r="41" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E41" s="1">
         <v>0.53832999999999998</v>
       </c>
@@ -10525,7 +10444,7 @@
         <v>0.78310000000000002</v>
       </c>
     </row>
-    <row r="42" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E42" s="1">
         <v>0.29594999999999999</v>
       </c>
@@ -10536,7 +10455,7 @@
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="43" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E43" s="1">
         <v>0.21228</v>
       </c>
@@ -10547,7 +10466,7 @@
         <v>0.79010000000000002</v>
       </c>
     </row>
-    <row r="44" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E44" s="1">
         <v>0.49833</v>
       </c>
@@ -10558,7 +10477,7 @@
         <v>0.77980000000000005</v>
       </c>
     </row>
-    <row r="45" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E45" s="1">
         <v>0.48558000000000001</v>
       </c>
@@ -10569,7 +10488,7 @@
         <v>0.78039999999999998</v>
       </c>
     </row>
-    <row r="46" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E46" s="1">
         <v>0.46910000000000002</v>
       </c>
@@ -10580,7 +10499,7 @@
         <v>0.78010000000000002</v>
       </c>
     </row>
-    <row r="47" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E47" s="1">
         <v>0.36374000000000001</v>
       </c>
@@ -10591,7 +10510,7 @@
         <v>0.78180000000000005</v>
       </c>
     </row>
-    <row r="48" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E48" s="1">
         <v>0.30607000000000001</v>
       </c>
@@ -10602,7 +10521,7 @@
         <v>0.78459999999999996</v>
       </c>
     </row>
-    <row r="49" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E49" s="1">
         <v>2.57735</v>
       </c>
@@ -10613,7 +10532,7 @@
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="50" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E50" s="1">
         <v>2.4842499999999998</v>
       </c>
@@ -10624,7 +10543,7 @@
         <v>0.92849999999999999</v>
       </c>
     </row>
-    <row r="51" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E51" s="1">
         <v>1.94278</v>
       </c>
@@ -10635,7 +10554,7 @@
         <v>0.86890000000000001</v>
       </c>
     </row>
-    <row r="52" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E52" s="1">
         <v>1.5653300000000001</v>
       </c>
@@ -10646,7 +10565,7 @@
         <v>0.83320000000000005</v>
       </c>
     </row>
-    <row r="53" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E53" s="1">
         <v>1.30464</v>
       </c>
@@ -10657,7 +10576,7 @@
         <v>0.8115</v>
       </c>
     </row>
-    <row r="54" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E54" s="1">
         <v>1.26715</v>
       </c>
@@ -10668,7 +10587,7 @@
         <v>0.80889999999999995</v>
       </c>
     </row>
-    <row r="55" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E55" s="1">
         <v>0.99407000000000001</v>
       </c>
@@ -10679,7 +10598,7 @@
         <v>0.79159999999999997</v>
       </c>
     </row>
-    <row r="56" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E56" s="1">
         <v>0.96521999999999997</v>
       </c>
@@ -10690,7 +10609,7 @@
         <v>0.7893</v>
       </c>
     </row>
-    <row r="57" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E57" s="1">
         <v>0.86692999999999998</v>
       </c>
@@ -10701,7 +10620,7 @@
         <v>0.7843</v>
       </c>
     </row>
-    <row r="58" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E58" s="1">
         <v>1.1175900000000001</v>
       </c>
@@ -10712,7 +10631,7 @@
         <v>0.76339999999999997</v>
       </c>
     </row>
-    <row r="59" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E59" s="1">
         <v>1.0960300000000001</v>
       </c>
@@ -10723,7 +10642,7 @@
         <v>0.76170000000000004</v>
       </c>
     </row>
-    <row r="60" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E60" s="1">
         <v>2.8190400000000002</v>
       </c>
@@ -10734,7 +10653,7 @@
         <v>0.96289999999999998</v>
       </c>
     </row>
-    <row r="61" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E61" s="1">
         <v>2.79853</v>
       </c>
@@ -10745,7 +10664,7 @@
         <v>0.96060000000000001</v>
       </c>
     </row>
-    <row r="62" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E62" s="1">
         <v>2.6907000000000001</v>
       </c>
@@ -10756,7 +10675,7 @@
         <v>0.9476</v>
       </c>
     </row>
-    <row r="63" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E63" s="1">
         <v>2.44503</v>
       </c>
@@ -10767,7 +10686,7 @@
         <v>0.91900000000000004</v>
       </c>
     </row>
-    <row r="64" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E64" s="1">
         <v>2.2557999999999998</v>
       </c>
@@ -10778,7 +10697,7 @@
         <v>0.89790000000000003</v>
       </c>
     </row>
-    <row r="65" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E65" s="1">
         <v>2.12548</v>
       </c>
@@ -10789,7 +10708,7 @@
         <v>0.88390000000000002</v>
       </c>
     </row>
-    <row r="66" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E66" s="1">
         <v>1.60666</v>
       </c>
@@ -10800,7 +10719,7 @@
         <v>0.83340000000000003</v>
       </c>
     </row>
-    <row r="67" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E67" s="1">
         <v>1.1325099999999999</v>
       </c>
@@ -10811,7 +10730,7 @@
         <v>0.79690000000000005</v>
       </c>
     </row>
-    <row r="68" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E68" s="1">
         <v>0.87163999999999997</v>
       </c>
@@ -10822,7 +10741,7 @@
         <v>0.7823</v>
       </c>
     </row>
-    <row r="69" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="5:7" x14ac:dyDescent="0.35">
       <c r="E69" s="1">
         <v>0.70808000000000004</v>
       </c>
@@ -10842,44 +10761,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{88D00978-96AD-440F-AA3F-9C948C561128}">
   <dimension ref="A1:AX84"/>
   <sheetViews>
-    <sheetView topLeftCell="AR7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AR13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="BL12" sqref="BL12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.36328125" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" customWidth="1"/>
-    <col min="5" max="5" width="13.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" customWidth="1"/>
-    <col min="7" max="7" width="11.21875" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" style="7"/>
-    <col min="10" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="7.109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.88671875" style="1"/>
-    <col min="14" max="14" width="11.88671875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.44140625" style="1" customWidth="1"/>
-    <col min="16" max="16" width="12.44140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.5546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="8.88671875" style="7"/>
-    <col min="19" max="19" width="9.109375" customWidth="1"/>
-    <col min="21" max="21" width="14.21875" customWidth="1"/>
-    <col min="22" max="22" width="8.88671875" style="7"/>
-    <col min="25" max="25" width="8.88671875" style="7"/>
+    <col min="3" max="3" width="9.08984375" customWidth="1"/>
+    <col min="4" max="4" width="13.08984375" customWidth="1"/>
+    <col min="5" max="5" width="13.08984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.36328125" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" style="7"/>
+    <col min="10" max="11" width="8.90625" style="1"/>
+    <col min="12" max="12" width="7.08984375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="8.90625" style="1"/>
+    <col min="14" max="14" width="11.90625" style="1" customWidth="1"/>
+    <col min="15" max="15" width="13.453125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="12.453125" style="1" customWidth="1"/>
+    <col min="17" max="17" width="15.54296875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="8.90625" style="7"/>
+    <col min="19" max="19" width="9.08984375" customWidth="1"/>
+    <col min="21" max="21" width="14.1796875" customWidth="1"/>
+    <col min="22" max="22" width="8.90625" style="7"/>
+    <col min="25" max="25" width="8.90625" style="7"/>
     <col min="28" max="28" width="12" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="12" style="7" customWidth="1"/>
     <col min="31" max="32" width="12" customWidth="1"/>
     <col min="33" max="33" width="12" style="9" customWidth="1"/>
     <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="13.21875" customWidth="1"/>
-    <col min="38" max="38" width="8.88671875" style="7"/>
-    <col min="40" max="42" width="21.5546875" style="1" customWidth="1"/>
-    <col min="44" max="44" width="13.44140625" style="1" customWidth="1"/>
+    <col min="37" max="37" width="13.1796875" customWidth="1"/>
+    <col min="38" max="38" width="8.90625" style="7"/>
+    <col min="40" max="42" width="21.54296875" style="1" customWidth="1"/>
+    <col min="44" max="44" width="13.453125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:50" ht="23.5" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="4" t="s">
         <v>33</v>
       </c>
@@ -10898,7 +10817,7 @@
       <c r="AG1"/>
       <c r="AL1"/>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.35">
       <c r="H2"/>
       <c r="K2" s="6" t="s">
         <v>8</v>
@@ -10921,7 +10840,7 @@
       <c r="AG2" s="1"/>
       <c r="AL2"/>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.35">
       <c r="H3"/>
       <c r="K3" s="6" t="s">
         <v>9</v>
@@ -10944,7 +10863,7 @@
       <c r="AG3" s="1"/>
       <c r="AL3"/>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.35">
       <c r="H4"/>
       <c r="R4"/>
       <c r="V4"/>
@@ -10961,7 +10880,7 @@
       <c r="AG4" s="1"/>
       <c r="AL4"/>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.35">
       <c r="H5"/>
       <c r="R5"/>
       <c r="V5"/>
@@ -10970,7 +10889,7 @@
       <c r="AG5"/>
       <c r="AL5"/>
     </row>
-    <row r="6" spans="1:50" ht="42" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:50" ht="42" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -11080,7 +10999,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>1.0960399999999999</v>
       </c>
@@ -11216,7 +11135,7 @@
         <v>0.74580000000000002</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>1.0263</v>
       </c>
@@ -11348,7 +11267,7 @@
         <v>0.74409999999999998</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>0.94349000000000005</v>
       </c>
@@ -11492,7 +11411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0.94342000000000004</v>
       </c>
@@ -11638,7 +11557,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0.43031000000000003</v>
       </c>
@@ -11784,7 +11703,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>0.42624000000000001</v>
       </c>
@@ -11930,7 +11849,7 @@
         <v>0.30000000000000004</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>0.15548000000000001</v>
       </c>
@@ -12076,7 +11995,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>0.1148</v>
       </c>
@@ -12222,7 +12141,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="15" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>2.7969200000000001</v>
       </c>
@@ -12376,7 +12295,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>2.5790999999999999</v>
       </c>
@@ -12530,7 +12449,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="17" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>2.5750299999999999</v>
       </c>
@@ -12684,7 +12603,7 @@
         <v>0.79999999999999993</v>
       </c>
     </row>
-    <row r="18" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>1.9464699999999999</v>
       </c>
@@ -12838,7 +12757,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="19" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>1.9030499999999999</v>
       </c>
@@ -12992,7 +12911,7 @@
         <v>0.99999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>1.2143600000000001</v>
       </c>
@@ -13146,7 +13065,7 @@
         <v>1.0999999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>1.19438</v>
       </c>
@@ -13300,7 +13219,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="22" spans="1:50" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:50" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>1.16333</v>
       </c>
@@ -13454,7 +13373,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="23" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>1.13737</v>
       </c>
@@ -13608,7 +13527,7 @@
         <v>1.4000000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>2.5646200000000001</v>
       </c>
@@ -13756,7 +13675,7 @@
         <v>1.5000000000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>2.4317600000000001</v>
       </c>
@@ -13904,7 +13823,7 @@
         <v>1.6000000000000003</v>
       </c>
     </row>
-    <row r="26" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>2.2671299999999999</v>
       </c>
@@ -14052,7 +13971,7 @@
         <v>1.7000000000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>2.00387</v>
       </c>
@@ -14200,7 +14119,7 @@
         <v>1.8000000000000005</v>
       </c>
     </row>
-    <row r="28" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>1.91442</v>
       </c>
@@ -14348,7 +14267,7 @@
         <v>1.9000000000000006</v>
       </c>
     </row>
-    <row r="29" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>1.8589100000000001</v>
       </c>
@@ -14488,7 +14407,7 @@
         <v>0.8216</v>
       </c>
     </row>
-    <row r="30" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>1.6414599999999999</v>
       </c>
@@ -14628,7 +14547,7 @@
         <v>0.80589999999999995</v>
       </c>
     </row>
-    <row r="31" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>1.46208</v>
       </c>
@@ -14768,7 +14687,7 @@
         <v>0.79420000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:50" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:50" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>1.36084</v>
       </c>
@@ -14908,7 +14827,7 @@
         <v>0.78800000000000003</v>
       </c>
     </row>
-    <row r="33" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>1.2321599999999999</v>
       </c>
@@ -15048,7 +14967,7 @@
         <v>0.78090000000000004</v>
       </c>
     </row>
-    <row r="34" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>1.10141</v>
       </c>
@@ -15188,7 +15107,7 @@
         <v>0.77569999999999995</v>
       </c>
     </row>
-    <row r="35" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>0.97075</v>
       </c>
@@ -15328,7 +15247,7 @@
         <v>0.76890000000000003</v>
       </c>
     </row>
-    <row r="36" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A36" s="1">
         <v>0.88497999999999999</v>
       </c>
@@ -15468,7 +15387,7 @@
         <v>0.76590000000000003</v>
       </c>
     </row>
-    <row r="37" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A37" s="1">
         <v>0.8679</v>
       </c>
@@ -15608,7 +15527,7 @@
         <v>0.76500000000000001</v>
       </c>
     </row>
-    <row r="38" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A38" s="1">
         <v>0.83052000000000004</v>
       </c>
@@ -15748,7 +15667,7 @@
         <v>0.78820000000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A39" s="1">
         <v>0.81701999999999997</v>
       </c>
@@ -15888,7 +15807,7 @@
         <v>0.78749999999999998</v>
       </c>
     </row>
-    <row r="40" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A40" s="1">
         <v>0.75353999999999999</v>
       </c>
@@ -16028,7 +15947,7 @@
         <v>0.78600000000000003</v>
       </c>
     </row>
-    <row r="41" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A41" s="1">
         <v>0.68657999999999997</v>
       </c>
@@ -16168,7 +16087,7 @@
         <v>0.78490000000000004</v>
       </c>
     </row>
-    <row r="42" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A42" s="1">
         <v>0.60733000000000004</v>
       </c>
@@ -16308,7 +16227,7 @@
         <v>0.78359999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A43" s="1">
         <v>0.53832999999999998</v>
       </c>
@@ -16440,7 +16359,7 @@
         <v>0.78310000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A44" s="1">
         <v>0.29594999999999999</v>
       </c>
@@ -16572,7 +16491,7 @@
         <v>0.78300000000000003</v>
       </c>
     </row>
-    <row r="45" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A45" s="1">
         <v>0.21228</v>
       </c>
@@ -16704,7 +16623,7 @@
         <v>0.79010000000000002</v>
       </c>
     </row>
-    <row r="46" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A46" s="1">
         <v>0.49833</v>
       </c>
@@ -16836,7 +16755,7 @@
         <v>0.77980000000000005</v>
       </c>
     </row>
-    <row r="47" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A47" s="1">
         <v>0.48558000000000001</v>
       </c>
@@ -16968,7 +16887,7 @@
         <v>0.78039999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A48" s="1">
         <v>0.46910000000000002</v>
       </c>
@@ -17100,7 +17019,7 @@
         <v>0.78010000000000002</v>
       </c>
     </row>
-    <row r="49" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A49" s="1">
         <v>0.36374000000000001</v>
       </c>
@@ -17232,7 +17151,7 @@
         <v>0.78180000000000005</v>
       </c>
     </row>
-    <row r="50" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A50" s="1">
         <v>0.30607000000000001</v>
       </c>
@@ -17364,7 +17283,7 @@
         <v>0.78459999999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A51" s="1">
         <v>2.57735</v>
       </c>
@@ -17504,7 +17423,7 @@
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="52" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A52" s="1">
         <v>2.4842499999999998</v>
       </c>
@@ -17644,7 +17563,7 @@
         <v>0.92849999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A53" s="1">
         <v>1.94278</v>
       </c>
@@ -17784,7 +17703,7 @@
         <v>0.86890000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A54" s="1">
         <v>1.5653300000000001</v>
       </c>
@@ -17924,7 +17843,7 @@
         <v>0.83320000000000005</v>
       </c>
     </row>
-    <row r="55" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A55" s="1">
         <v>1.30464</v>
       </c>
@@ -18064,7 +17983,7 @@
         <v>0.8115</v>
       </c>
     </row>
-    <row r="56" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A56" s="1">
         <v>1.26715</v>
       </c>
@@ -18204,7 +18123,7 @@
         <v>0.80889999999999995</v>
       </c>
     </row>
-    <row r="57" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A57" s="1">
         <v>0.99407000000000001</v>
       </c>
@@ -18344,7 +18263,7 @@
         <v>0.79159999999999997</v>
       </c>
     </row>
-    <row r="58" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A58" s="1">
         <v>0.96521999999999997</v>
       </c>
@@ -18484,7 +18403,7 @@
         <v>0.7893</v>
       </c>
     </row>
-    <row r="59" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A59" s="1">
         <v>0.86692999999999998</v>
       </c>
@@ -18624,7 +18543,7 @@
         <v>0.7843</v>
       </c>
     </row>
-    <row r="60" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A60" s="1">
         <v>1.1175900000000001</v>
       </c>
@@ -18764,7 +18683,7 @@
         <v>0.76339999999999997</v>
       </c>
     </row>
-    <row r="61" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A61" s="1">
         <v>1.0960300000000001</v>
       </c>
@@ -18904,7 +18823,7 @@
         <v>0.76170000000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A62" s="1">
         <v>2.8190400000000002</v>
       </c>
@@ -19044,7 +18963,7 @@
         <v>0.96289999999999998</v>
       </c>
     </row>
-    <row r="63" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A63" s="1">
         <v>2.79853</v>
       </c>
@@ -19184,7 +19103,7 @@
         <v>0.96060000000000001</v>
       </c>
     </row>
-    <row r="64" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A64" s="1">
         <v>2.6907000000000001</v>
       </c>
@@ -19324,7 +19243,7 @@
         <v>0.9476</v>
       </c>
     </row>
-    <row r="65" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A65" s="1">
         <v>2.44503</v>
       </c>
@@ -19464,7 +19383,7 @@
         <v>0.91900000000000004</v>
       </c>
     </row>
-    <row r="66" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A66" s="1">
         <v>2.2557999999999998</v>
       </c>
@@ -19604,7 +19523,7 @@
         <v>0.89790000000000003</v>
       </c>
     </row>
-    <row r="67" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A67" s="1">
         <v>2.12548</v>
       </c>
@@ -19744,7 +19663,7 @@
         <v>0.88390000000000002</v>
       </c>
     </row>
-    <row r="68" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A68" s="1">
         <v>1.60666</v>
       </c>
@@ -19884,7 +19803,7 @@
         <v>0.83340000000000003</v>
       </c>
     </row>
-    <row r="69" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A69" s="1">
         <v>1.1325099999999999</v>
       </c>
@@ -20024,7 +19943,7 @@
         <v>0.79690000000000005</v>
       </c>
     </row>
-    <row r="70" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A70" s="1">
         <v>0.87163999999999997</v>
       </c>
@@ -20164,7 +20083,7 @@
         <v>0.7823</v>
       </c>
     </row>
-    <row r="71" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A71" s="1">
         <v>0.70808000000000004</v>
       </c>
@@ -20304,55 +20223,55 @@
         <v>0.77590000000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="1"/>
     </row>
-    <row r="73" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="1"/>
     </row>
-    <row r="74" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="1"/>
     </row>
-    <row r="75" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="1"/>
     </row>
-    <row r="76" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="1"/>
     </row>
-    <row r="77" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="1"/>
     </row>
-    <row r="78" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="1"/>
     </row>
-    <row r="79" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="1"/>
     </row>
-    <row r="80" spans="1:47" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:47" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="1"/>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="1"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="1"/>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="1"/>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="1"/>
     </row>
@@ -20370,13 +20289,13 @@
       <selection sqref="A1:B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.90625" style="1"/>
     <col min="2" max="2" width="14" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>36</v>
       </c>
@@ -20384,7 +20303,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>2.0999315560741503E-2</v>
       </c>
@@ -20392,7 +20311,7 @@
         <v>271.77023032931601</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>4.009100324751385E-2</v>
       </c>
@@ -20400,7 +20319,7 @@
         <v>270.10528340824402</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>5.9187100732663596E-2</v>
       </c>
@@ -20408,7 +20327,7 @@
         <v>268.44208538099599</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>7.6482269457726487E-2</v>
       </c>
@@ -20416,7 +20335,7 @@
         <v>267.91479389286201</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>9.5183301773118539E-2</v>
       </c>
@@ -20424,7 +20343,7 @@
         <v>263.97715944664998</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>0.12218269911280236</v>
       </c>
@@ -20432,7 +20351,7 @@
         <v>260.064009513982</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>0.14093082479144514</v>
       </c>
@@ -20440,7 +20359,7 @@
         <v>254.423826929467</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>0.15537083421440145</v>
       </c>
@@ -20448,7 +20367,7 @@
         <v>252.75800556148201</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0.15537925582263779</v>
       </c>
@@ -20456,7 +20375,7 @@
         <v>255.604330261109</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0.15449406904479593</v>
       </c>
@@ -20464,7 +20383,7 @@
         <v>256.74023680022299</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>0.15480226823819804</v>
       </c>
@@ -20472,7 +20391,7 @@
         <v>260.72596582661401</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>0.1533267267576309</v>
       </c>
@@ -20480,7 +20399,7 @@
         <v>263.56791829167997</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>0.15274523568297013</v>
       </c>
@@ -20488,7 +20407,7 @@
         <v>268.12028891725902</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>0.1518630082022864</v>
       </c>
@@ -20496,7 +20415,7 @@
         <v>272.10252015600099</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>0.14889810295327691</v>
       </c>
@@ -20504,7 +20423,7 @@
         <v>281.77127966561102</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>0.14711399763595187</v>
       </c>
@@ -20512,7 +20431,7 @@
         <v>289.16647720316899</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>0.14532067215920066</v>
       </c>
@@ -20520,7 +20439,7 @@
         <v>295.992409800801</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>0.14382565541793893</v>
       </c>
@@ -20528,7 +20447,7 @@
         <v>303.38848178527002</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>0.14292474476345665</v>
       </c>
@@ -20536,7 +20455,7 @@
         <v>307.37071302401199</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>0.14202888808345326</v>
       </c>
@@ -20544,7 +20463,7 @@
         <v>313.63000402245501</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>0.14174260668796504</v>
       </c>
@@ -20552,7 +20471,7 @@
         <v>319.89104391472398</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>0.14022456349807511</v>
       </c>
@@ -20560,7 +20479,7 @@
         <v>323.87152625964001</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>0.13962143433393306</v>
       </c>
@@ -20568,7 +20487,7 @@
         <v>327.28536700536898</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>0.13657721019261368</v>
       </c>
@@ -20576,7 +20495,7 @@
         <v>339.23118627468102</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>0.13598833941624983</v>
       </c>
@@ -20584,7 +20503,7 @@
         <v>348.90694135959001</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>0.13444100986675767</v>
       </c>
@@ -20592,7 +20511,7 @@
         <v>350.04109900487902</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>0.13448876613221616</v>
       </c>
@@ -20600,7 +20519,7 @@
         <v>365.41125238286702</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>0.13325484791941505</v>
       </c>
@@ -20608,7 +20527,7 @@
         <v>368.82334423477101</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>0.13264367338351149</v>
       </c>
@@ -20616,7 +20535,7 @@
         <v>372.806449920425</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>0.13265788276539192</v>
       </c>
@@ -20624,7 +20543,7 @@
         <v>377.36056943982902</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>0.12808160798714385</v>
       </c>
@@ -20632,7 +20551,7 @@
         <v>418.33452841078002</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>0.12695352908259044</v>
       </c>
@@ -20640,7 +20559,7 @@
         <v>461.02590111754301</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>0.1279870644577214</v>
       </c>
@@ -20662,17 +20581,17 @@
       <selection activeCell="D4" sqref="D4:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" customWidth="1"/>
-    <col min="7" max="7" width="10.6640625" customWidth="1"/>
-    <col min="8" max="8" width="12.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" customWidth="1"/>
+    <col min="5" max="5" width="12.6328125" customWidth="1"/>
+    <col min="7" max="7" width="10.6328125" customWidth="1"/>
+    <col min="8" max="8" width="12.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -20680,7 +20599,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -20694,7 +20613,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2.0999315560741503E-2</v>
       </c>
@@ -20714,7 +20633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>4.009100324751385E-2</v>
       </c>
@@ -20734,7 +20653,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>5.9187100732663596E-2</v>
       </c>
@@ -20754,7 +20673,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>7.6482269457726487E-2</v>
       </c>
@@ -20774,7 +20693,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>9.5183301773118539E-2</v>
       </c>
@@ -20794,7 +20713,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>0.12218269911280236</v>
       </c>
@@ -20814,7 +20733,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>0.14093082479144514</v>
       </c>
@@ -20834,7 +20753,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0.15537083421440145</v>
       </c>
@@ -20854,7 +20773,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0.15537925582263779</v>
       </c>
@@ -20874,7 +20793,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>0.15449406904479593</v>
       </c>
@@ -20894,7 +20813,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>0.15480226823819804</v>
       </c>
@@ -20914,7 +20833,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>0.1533267267576309</v>
       </c>
@@ -20934,7 +20853,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>0.15274523568297013</v>
       </c>
@@ -20954,7 +20873,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>0.1518630082022864</v>
       </c>
@@ -20968,7 +20887,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>0.14889810295327691</v>
       </c>
@@ -20982,7 +20901,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>0.14711399763595187</v>
       </c>
@@ -20996,7 +20915,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>0.14532067215920066</v>
       </c>
@@ -21010,7 +20929,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>0.14382565541793893</v>
       </c>
@@ -21024,7 +20943,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>0.14292474476345665</v>
       </c>
@@ -21038,7 +20957,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>0.14202888808345326</v>
       </c>
@@ -21052,7 +20971,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>0.14174260668796504</v>
       </c>
@@ -21066,7 +20985,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>0.14022456349807511</v>
       </c>
@@ -21080,7 +20999,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>0.13962143433393306</v>
       </c>
@@ -21094,7 +21013,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>0.13657721019261368</v>
       </c>
@@ -21108,7 +21027,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>0.13598833941624983</v>
       </c>
@@ -21122,7 +21041,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>0.13444100986675767</v>
       </c>
@@ -21136,7 +21055,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>0.13448876613221616</v>
       </c>
@@ -21150,7 +21069,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>0.13325484791941505</v>
       </c>
@@ -21164,7 +21083,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>0.13264367338351149</v>
       </c>
@@ -21178,7 +21097,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>0.13265788276539192</v>
       </c>
@@ -21192,7 +21111,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>0.12808160798714385</v>
       </c>
@@ -21206,7 +21125,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>0.12695352908259044</v>
       </c>
@@ -21220,7 +21139,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>0.1279870644577214</v>
       </c>
@@ -21234,7 +21153,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G36">
         <v>0.12926299999999999</v>
       </c>
@@ -21242,7 +21161,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G37">
         <v>0.12889300000000001</v>
       </c>
@@ -21250,7 +21169,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G38">
         <v>0.12886</v>
       </c>
@@ -21258,7 +21177,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G39">
         <v>0.128801</v>
       </c>
@@ -21266,7 +21185,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G40">
         <v>0.12879699999999999</v>
       </c>
@@ -21274,7 +21193,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G41">
         <v>0.12882299999999999</v>
       </c>
@@ -21282,7 +21201,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G42">
         <v>0.128861</v>
       </c>
@@ -21290,7 +21209,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G43">
         <v>0.12895899999999999</v>
       </c>
@@ -21298,7 +21217,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G44">
         <v>0.12898399999999999</v>
       </c>
@@ -21306,7 +21225,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G45">
         <v>0.12901000000000001</v>
       </c>
@@ -21314,7 +21233,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" ht="13.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G46">
         <v>0.12909999999999999</v>
       </c>
@@ -21322,7 +21241,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G47">
         <v>0.12928600000000001</v>
       </c>
@@ -21330,7 +21249,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="G48">
         <v>0.12941900000000001</v>
       </c>
@@ -21338,7 +21257,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="49" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G49">
         <v>0.12951599999999999</v>
       </c>
@@ -21346,7 +21265,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="50" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G50">
         <v>0.12956799999999999</v>
       </c>
@@ -21354,7 +21273,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="51" spans="7:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="7:8" x14ac:dyDescent="0.35">
       <c r="G51">
         <v>0.12962099999999999</v>
       </c>
@@ -21373,19 +21292,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAA53125-8324-42F8-BF4C-83E8BB87300B}">
   <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="12.21875" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="12.1796875" customWidth="1"/>
+    <col min="2" max="2" width="12.36328125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -21393,7 +21312,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>36</v>
       </c>
@@ -21407,7 +21326,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2.0999315560741503E-2</v>
       </c>
@@ -21415,7 +21334,7 @@
         <v>271.77023032931601</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>4.009100324751385E-2</v>
       </c>
@@ -21423,7 +21342,7 @@
         <v>270.10528340824402</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>5.9187100732663596E-2</v>
       </c>
@@ -21431,7 +21350,7 @@
         <v>268.44208538099599</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>7.6482269457726487E-2</v>
       </c>
@@ -21439,7 +21358,7 @@
         <v>267.91479389286201</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>9.5183301773118539E-2</v>
       </c>
@@ -21453,7 +21372,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>0.12218269911280236</v>
       </c>
@@ -21467,7 +21386,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>0.14093082479144514</v>
       </c>
@@ -21481,7 +21400,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>0.15537083421440145</v>
       </c>
@@ -21495,7 +21414,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>0.15537925582263779</v>
       </c>
@@ -21509,7 +21428,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>0.15449406904479593</v>
       </c>
@@ -21523,7 +21442,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>0.15480226823819804</v>
       </c>
@@ -21537,7 +21456,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>0.1533267267576309</v>
       </c>
@@ -21551,7 +21470,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>0.15274523568297013</v>
       </c>
@@ -21565,7 +21484,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>0.1518630082022864</v>
       </c>
@@ -21579,7 +21498,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>0.14889810295327691</v>
       </c>
@@ -21593,7 +21512,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>0.14711399763595187</v>
       </c>
@@ -21607,7 +21526,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>0.14532067215920066</v>
       </c>
@@ -21621,7 +21540,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>0.14382565541793893</v>
       </c>
@@ -21635,7 +21554,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>0.14292474476345665</v>
       </c>
@@ -21649,7 +21568,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>0.14202888808345326</v>
       </c>
@@ -21663,7 +21582,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>0.14174260668796504</v>
       </c>
@@ -21677,7 +21596,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>0.14022456349807511</v>
       </c>
@@ -21691,7 +21610,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>0.13962143433393306</v>
       </c>
@@ -21705,7 +21624,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>0.13657721019261368</v>
       </c>
@@ -21719,7 +21638,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>0.13598833941624983</v>
       </c>
@@ -21733,7 +21652,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>0.13444100986675767</v>
       </c>
@@ -21747,7 +21666,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>0.13448876613221616</v>
       </c>
@@ -21761,7 +21680,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>0.13325484791941505</v>
       </c>
@@ -21775,7 +21694,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>0.13264367338351149</v>
       </c>
@@ -21789,7 +21708,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>0.13265788276539192</v>
       </c>
@@ -21803,7 +21722,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>0.12808160798714385</v>
       </c>
@@ -21817,7 +21736,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>0.12695352908259044</v>
       </c>
@@ -21831,7 +21750,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>0.1279870644577214</v>
       </c>
@@ -21845,7 +21764,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D36">
         <v>0.132077</v>
       </c>
@@ -21853,7 +21772,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D37">
         <v>0.13117200000000001</v>
       </c>
@@ -21861,7 +21780,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D38">
         <v>0.13100700000000001</v>
       </c>
@@ -21869,7 +21788,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D39">
         <v>0.13092699999999999</v>
       </c>
@@ -21877,7 +21796,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D40">
         <v>0.130694</v>
       </c>
@@ -21885,7 +21804,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D41">
         <v>0.13001199999999999</v>
       </c>
@@ -21893,7 +21812,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D42">
         <v>0.129302</v>
       </c>
@@ -21901,7 +21820,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D43">
         <v>0.12926299999999999</v>
       </c>
@@ -21909,7 +21828,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D44">
         <v>0.12889300000000001</v>
       </c>
@@ -21917,7 +21836,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D45">
         <v>0.12886</v>
       </c>
@@ -21925,7 +21844,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D46">
         <v>0.128801</v>
       </c>
@@ -21933,7 +21852,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D47">
         <v>0.12879699999999999</v>
       </c>
@@ -21941,7 +21860,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="D48">
         <v>0.12882299999999999</v>
       </c>
@@ -21949,7 +21868,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D49">
         <v>0.128861</v>
       </c>
@@ -21957,7 +21876,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D50">
         <v>0.12895899999999999</v>
       </c>
@@ -21965,7 +21884,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D51">
         <v>0.12898399999999999</v>
       </c>
@@ -21973,7 +21892,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D52">
         <v>0.12901000000000001</v>
       </c>
@@ -21981,7 +21900,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D53">
         <v>0.12909999999999999</v>
       </c>
@@ -21989,7 +21908,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="54" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D54">
         <v>0.12928600000000001</v>
       </c>
@@ -21997,7 +21916,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D55">
         <v>0.12941900000000001</v>
       </c>
@@ -22005,7 +21924,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="56" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D56">
         <v>0.12951599999999999</v>
       </c>
@@ -22013,7 +21932,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="57" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D57">
         <v>0.12956799999999999</v>
       </c>
@@ -22021,7 +21940,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="58" spans="4:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D58">
         <v>0.12962099999999999</v>
       </c>
@@ -22039,6 +21958,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010054E8EBE579ED724DA6862405C7970F81" ma:contentTypeVersion="14" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="86c5e3b6225d101e522740491cefce85">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xmlns:ns4="5d848a0f-dbe6-471c-a407-bb7a402dc859" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a6c024ab2e87b0647c7181ba4225cb0c" ns3:_="" ns4:_="">
     <xsd:import namespace="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
@@ -22267,24 +22203,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715EA469-2506-458C-8899-792543708004}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="49fa8af8-517d-491f-a3d5-7cf68fb985f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71225005-2353-48CA-B97F-AA326ECE473F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A9DB222-0F4D-4FD5-8C4B-98B33BC10001}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -22301,29 +22245,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{71225005-2353-48CA-B97F-AA326ECE473F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{715EA469-2506-458C-8899-792543708004}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="49fa8af8-517d-491f-a3d5-7cf68fb985f9"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="5d848a0f-dbe6-471c-a407-bb7a402dc859"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>